--- a/Excel-XLSX/UN-STK.xlsx
+++ b/Excel-XLSX/UN-STK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,43 @@
     <t>1</t>
   </si>
   <si>
-    <t>4lMduo</t>
+    <t>S5Ox7r</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>STK</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>2017</t>
@@ -102,42 +138,21 @@
     <t>CUB</t>
   </si>
   <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>STK</t>
-  </si>
-  <si>
-    <t>KNA</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
@@ -153,16 +168,22 @@
     <t>19</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -547,7 +568,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -708,16 +729,16 @@
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -732,10 +753,10 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>32</v>
@@ -755,8 +776,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -770,22 +791,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -800,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>32</v>
@@ -823,8 +844,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -838,22 +859,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -868,7 +889,7 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
@@ -888,11 +909,11 @@
       <c r="T5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="U5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -906,22 +927,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -957,10 +978,10 @@
         <v>32</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -974,22 +995,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1022,12 +1043,148 @@
         <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-STK.xlsx
+++ b/Excel-XLSX/UN-STK.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>S5Ox7r</t>
+    <t>rb19QM</t>
   </si>
   <si>
     <t>2023</t>
@@ -114,12 +114,12 @@
     <t>KNA</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -153,6 +153,9 @@
     <t>2019</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
@@ -168,7 +171,7 @@
     <t>19</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>2021</t>
@@ -177,13 +180,10 @@
     <t>60</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>2022</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -691,25 +691,25 @@
         <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -753,31 +753,31 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -824,28 +824,28 @@
         <v>40</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -892,28 +892,28 @@
         <v>40</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -930,19 +930,19 @@
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -957,31 +957,31 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -995,22 +995,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1025,31 +1025,31 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1063,22 +1063,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1093,31 +1093,31 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1131,22 +1131,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1161,31 +1161,31 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-STK.xlsx
+++ b/Excel-XLSX/UN-STK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,6 +90,84 @@
     <t>rb19QM</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>STK</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
@@ -102,88 +180,16 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>STK</t>
-  </si>
-  <si>
-    <t>KNA</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>2022</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -568,7 +574,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -691,25 +697,25 @@
         <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -729,16 +735,16 @@
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -756,28 +762,28 @@
         <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -791,22 +797,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -821,31 +827,31 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -859,22 +865,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -889,31 +895,31 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -927,22 +933,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -957,31 +963,31 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -995,22 +1001,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1025,31 +1031,31 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1063,22 +1069,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1093,31 +1099,31 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1131,22 +1137,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1164,28 +1170,96 @@
         <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-STK.xlsx
+++ b/Excel-XLSX/UN-STK.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>rb19QM</t>
+    <t>jKRX91</t>
   </si>
   <si>
     <t>2017</t>
